--- a/1M/representation/tp/sons/echantillonnage-quantification.xlsx
+++ b/1M/representation/tp/sons/echantillonnage-quantification.xlsx
@@ -187,7 +187,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1015,11 +1015,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51668010"/>
-        <c:axId val="82094842"/>
+        <c:axId val="4813539"/>
+        <c:axId val="30285548"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51668010"/>
+        <c:axId val="4813539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,12 +1047,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82094842"/>
+        <c:crossAx val="30285548"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82094842"/>
+        <c:axId val="30285548"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51668010"/>
+        <c:crossAx val="4813539"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1137,33 +1137,506 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QUANTIFICATION SUR </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuille1!$A$2:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuille1!$D$2:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="35971222"/>
+        <c:axId val="18606643"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="35971222"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18606643"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="18606643"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35971222"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.765552584670232"/>
+          <c:y val="0.466829647738638"/>
+          <c:w val="0.221434937611408"/>
+          <c:h val="0.0663407045227248"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>307080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>539640</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>356760</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="0" name="ECHANTILLONNAGE"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6083280" y="191520"/>
-        <a:ext cx="8451720" cy="4753800"/>
+        <a:off x="5361840" y="307800"/>
+        <a:ext cx="8177400" cy="2972160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>326520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>356400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5381280" y="3449880"/>
+        <a:ext cx="8970480" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1180,7 +1653,7 @@
   <dimension ref="A1:F240"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1402,6 +1875,7 @@
         <f aca="false">SIN(PI()/180 *A20)</f>
         <v>1.22464679914735E-016</v>
       </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1430,6 +1904,7 @@
         <f aca="false">SIN(PI()/180 *A23)</f>
         <v>-0.5</v>
       </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -1458,6 +1933,7 @@
         <f aca="false">SIN(PI()/180 *A26)</f>
         <v>-0.866025403784438</v>
       </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -1682,6 +2158,7 @@
         <f aca="false">SIN(PI()/180 *A50)</f>
         <v>0.866025403784439</v>
       </c>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -1709,6 +2186,7 @@
         <f aca="false">SIN(PI()/180 *A53)</f>
         <v>0.5</v>
       </c>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -1736,6 +2214,7 @@
         <f aca="false">SIN(PI()/180 *A56)</f>
         <v>3.67394039744206E-016</v>
       </c>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -1763,6 +2242,7 @@
         <f aca="false">SIN(PI()/180 *A59)</f>
         <v>-0.499999999999999</v>
       </c>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -1790,6 +2270,7 @@
         <f aca="false">SIN(PI()/180 *A62)</f>
         <v>-0.866025403784439</v>
       </c>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -1817,6 +2298,7 @@
         <f aca="false">SIN(PI()/180 *A65)</f>
         <v>-1</v>
       </c>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -1844,6 +2326,7 @@
         <f aca="false">SIN(PI()/180 *A68)</f>
         <v>-0.866025403784439</v>
       </c>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -1871,6 +2354,7 @@
         <f aca="false">SIN(PI()/180 *A71)</f>
         <v>-0.5</v>
       </c>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -1898,6 +2382,7 @@
         <f aca="false">SIN(PI()/180 *A74)</f>
         <v>-4.89858719658941E-016</v>
       </c>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1"/>
